--- a/scripts/Edouard/Regression_results/Regression_results_trend_Imports.xlsx
+++ b/scripts/Edouard/Regression_results/Regression_results_trend_Imports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,10 +20,13 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">War_non_ter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">War_duree_non_ter</t>
+    <t xml:space="preserve">year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War_var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War_duree</t>
   </si>
   <si>
     <t xml:space="preserve">N</t>
@@ -38,114 +41,149 @@
     <t xml:space="preserve">trend_Marseille_Imports</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6520 ***</t>
+    <t xml:space="preserve">1.7241 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0017 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0125 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.7633)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0004)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0194)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend_Bordeaux_Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16.1447 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0118 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.5156)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0977)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0276)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend_La Rochelle_Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-21.4902 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0150 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0287 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.4178)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0435)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend_Nantes_Imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17.2047 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0125 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2.2358)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0509)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.0125)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0332)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0090)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">trend_Bordeaux_Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3677 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3134 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0508)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1465)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0403)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trend_La Rochelle_Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6426 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3497 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0438)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1320)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0418)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trend_Nantes_Imports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7814 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0534)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1282)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0335)</t>
-  </si>
-  <si>
     <t xml:space="preserve">trend_Bayonne_Imports</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7769 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0185)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0445)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0107)</t>
+    <t xml:space="preserve">-7.7098 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0071 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0114 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.3451)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0049)</t>
   </si>
   <si>
     <t xml:space="preserve">trend_Rennes_Imports</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1135 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0364 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0340)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0711)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0175)</t>
+    <t xml:space="preserve">10.1396 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1799 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0466 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.8587)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0549)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0137)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -288,13 +326,13 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,37 +651,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>0</v>
@@ -654,250 +692,291 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>0.0331</v>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0.0185</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0.0257</v>
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>0.1392</v>
+        <v>-0.0034</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <v>0.0158</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="n">
-        <v>0.0179</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="B4" s="7" t="n">
+        <v>-0.0061</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>-0.0451</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>-0.0347</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <v>-0.0606</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
+      <c r="J4" s="7" t="n">
+        <v>-0.0254</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>55</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>58</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="n">
-        <v>57</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>39</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="9" t="n">
-        <v>29</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>12</v>
+      <c r="H5" s="8" t="n">
+        <v>-0.0063</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0.0862</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0.2676</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>0.0157</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="10" t="n">
-        <v>0.1575</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>12</v>
+      <c r="B6" s="9" t="n">
+        <v>55</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>57</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>39</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="B7" s="10" t="n">
+        <v>0.3021</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.4127</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0.8702</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0.7821</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0.7646</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="NA" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A8:M8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
